--- a/Energy Consumption1.xlsx
+++ b/Energy Consumption1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.269943968070347</v>
+        <v>2.436526759445814</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6835332588897373</v>
+        <v>4.73868487938369</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.935723207438034</v>
+        <v>3.07778131355755</v>
       </c>
       <c r="C3" t="n">
-        <v>1.745709513372837</v>
+        <v>9.030399598100548</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.002136103262014</v>
+        <v>3.861623001282576</v>
       </c>
       <c r="C4" t="n">
-        <v>2.461625908403911</v>
+        <v>13.65123610159381</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.36789872901792</v>
+        <v>5.144260277174242</v>
       </c>
       <c r="C5" t="n">
-        <v>3.160699305830804</v>
+        <v>18.68636893467628</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.46834065971946</v>
+        <v>9.091850423698734</v>
       </c>
       <c r="C6" t="n">
-        <v>4.037572617656109</v>
+        <v>22.9903699430008</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.26722449136052</v>
+        <v>10.52768881164416</v>
       </c>
       <c r="C7" t="n">
-        <v>4.877827551158604</v>
+        <v>27.67055998720142</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.64793016493449</v>
+        <v>14.40878583818409</v>
       </c>
       <c r="C8" t="n">
-        <v>5.676232477992323</v>
+        <v>32.25587837970533</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.99713155726579</v>
+        <v>18.16973274804635</v>
       </c>
       <c r="C9" t="n">
-        <v>6.405264888626223</v>
+        <v>36.80757980118673</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.07162425683696</v>
+        <v>20.86967393234801</v>
       </c>
       <c r="C10" t="n">
-        <v>7.207647960147713</v>
+        <v>41.41922070219037</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.33575337641221</v>
+        <v>21.98868764415236</v>
       </c>
       <c r="C11" t="n">
-        <v>7.95077912464438</v>
+        <v>46.01868879703605</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22.35598060067359</v>
+        <v>26.47033935895532</v>
       </c>
       <c r="C12" t="n">
-        <v>8.642602959589802</v>
+        <v>50.20438883734235</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22.40651269280703</v>
+        <v>28.12166889803166</v>
       </c>
       <c r="C13" t="n">
-        <v>9.454822176576114</v>
+        <v>54.50282149219203</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23.11547073137306</v>
+        <v>29.36431219975522</v>
       </c>
       <c r="C14" t="n">
-        <v>10.71366497395291</v>
+        <v>58.75094118523278</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23.17253820665819</v>
+        <v>32.59198483043343</v>
       </c>
       <c r="C15" t="n">
-        <v>11.49031306165032</v>
+        <v>63.44251568013605</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>32.03567887947337</v>
+        <v>37.49818118510792</v>
       </c>
       <c r="C16" t="n">
-        <v>12.23510398354567</v>
+        <v>68.2562384906346</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>32.11691150575682</v>
+        <v>38.5704179864037</v>
       </c>
       <c r="C17" t="n">
-        <v>13.07319231220608</v>
+        <v>73.17758598011956</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>34.53860295196572</v>
+        <v>39.9518111210485</v>
       </c>
       <c r="C18" t="n">
-        <v>13.75323450440266</v>
+        <v>77.62985714399545</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>36.224498875393</v>
+        <v>42.076861034495</v>
       </c>
       <c r="C19" t="n">
-        <v>14.56307814115435</v>
+        <v>83.88583665251386</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>36.26592176558818</v>
+        <v>45.50608037691438</v>
       </c>
       <c r="C20" t="n">
-        <v>15.3894410405898</v>
+        <v>88.32491025662799</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>37.72117832839361</v>
+        <v>46.94632498548744</v>
       </c>
       <c r="C21" t="n">
-        <v>16.18228044668237</v>
+        <v>92.84828262083994</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>38.56721863752156</v>
+        <v>50.57039674103132</v>
       </c>
       <c r="C22" t="n">
-        <v>16.88702884205342</v>
+        <v>97.66255477013813</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>47.0722220587398</v>
+        <v>52.74798902292862</v>
       </c>
       <c r="C23" t="n">
-        <v>17.60010404288129</v>
+        <v>102.294461109647</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>47.1409071824164</v>
+        <v>53.82551200476517</v>
       </c>
       <c r="C24" t="n">
-        <v>18.43360630192127</v>
+        <v>106.8815747183173</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>52.40325336145923</v>
+        <v>54.8557200898988</v>
       </c>
       <c r="C25" t="n">
-        <v>19.24532003229813</v>
+        <v>111.7607582365735</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>56.21029718694669</v>
+        <v>56.12649452687561</v>
       </c>
       <c r="C26" t="n">
-        <v>20.06551437444497</v>
+        <v>116.4278048907276</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>56.36415310252344</v>
+        <v>57.68418335795553</v>
       </c>
       <c r="C27" t="n">
-        <v>20.74972999077052</v>
+        <v>120.8479506220677</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>61.46070364785704</v>
+        <v>58.8910464855331</v>
       </c>
       <c r="C28" t="n">
-        <v>21.46634232336856</v>
+        <v>125.3812356148811</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>61.52036523159424</v>
+        <v>59.55545538932339</v>
       </c>
       <c r="C29" t="n">
-        <v>22.3996968082645</v>
+        <v>129.7360179214687</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>62.97185936005168</v>
+        <v>61.47758263611268</v>
       </c>
       <c r="C30" t="n">
-        <v>23.09723794297696</v>
+        <v>134.5296403974218</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>63.15745245943182</v>
+        <v>63.05848452388574</v>
       </c>
       <c r="C31" t="n">
-        <v>23.79963993000597</v>
+        <v>139.4791176579361</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>63.22248746491332</v>
+        <v>65.29076685512884</v>
       </c>
       <c r="C32" t="n">
-        <v>24.55308405818759</v>
+        <v>143.8733334876593</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>66.7770654845943</v>
+        <v>66.71755706330386</v>
       </c>
       <c r="C33" t="n">
-        <v>25.34019154467155</v>
+        <v>148.5734577686894</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>66.86388097899815</v>
+        <v>68.2848906453424</v>
       </c>
       <c r="C34" t="n">
-        <v>26.10155439879465</v>
+        <v>153.221066593537</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>69.25690899288475</v>
+        <v>71.01773294007006</v>
       </c>
       <c r="C35" t="n">
-        <v>26.9058994683107</v>
+        <v>157.5720652048809</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>72.3535451994976</v>
+        <v>72.73063753830674</v>
       </c>
       <c r="C36" t="n">
-        <v>27.63110927294825</v>
+        <v>162.0787090265635</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>86.30694646919498</v>
+        <v>73.29587515367113</v>
       </c>
       <c r="C37" t="n">
-        <v>28.36676900329918</v>
+        <v>166.4171714311537</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>86.8804048835482</v>
+        <v>75.11049528708644</v>
       </c>
       <c r="C38" t="n">
-        <v>29.0898725266667</v>
+        <v>170.6716151184</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>86.93587466794396</v>
+        <v>77.0307028725347</v>
       </c>
       <c r="C39" t="n">
-        <v>29.82695333496631</v>
+        <v>176.0904183787233</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>86.99631602736913</v>
+        <v>78.64739955066166</v>
       </c>
       <c r="C40" t="n">
-        <v>30.65549937701969</v>
+        <v>180.4809625412018</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>93.85016889744593</v>
+        <v>80.24383491266964</v>
       </c>
       <c r="C41" t="n">
-        <v>31.37043756074641</v>
+        <v>184.9087643332743</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>96.70502725623969</v>
+        <v>82.13551439585373</v>
       </c>
       <c r="C42" t="n">
-        <v>32.3629667879116</v>
+        <v>189.5673878522085</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>96.77890991125871</v>
+        <v>82.4283487520233</v>
       </c>
       <c r="C43" t="n">
-        <v>33.08991561402473</v>
+        <v>194.1010802888335</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>97.34958353115189</v>
+        <v>84.07630018341753</v>
       </c>
       <c r="C44" t="n">
-        <v>33.97487043744781</v>
+        <v>198.6031439909085</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>98.07925192800255</v>
+        <v>88.63539008843144</v>
       </c>
       <c r="C45" t="n">
-        <v>35.03069614323158</v>
+        <v>202.9477375643535</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>98.88338290626554</v>
+        <v>92.67940803563664</v>
       </c>
       <c r="C46" t="n">
-        <v>35.77287646260865</v>
+        <v>207.6541678844868</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>98.93926738983548</v>
+        <v>94.3615718397746</v>
       </c>
       <c r="C47" t="n">
-        <v>36.60491418671845</v>
+        <v>212.4519646700301</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>95.59146200405738</v>
+      </c>
+      <c r="C48" t="n">
+        <v>216.8299721989482</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>96.5567941184588</v>
+      </c>
+      <c r="C49" t="n">
+        <v>221.7766896826433</v>
       </c>
     </row>
   </sheetData>
